--- a/1.16.xlsx
+++ b/1.16.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,10 @@
   </si>
   <si>
     <t>2.数据库表的设计；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.将已经基本写完的项目报告格式改好。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,16 +399,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
     <col min="3" max="3" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -430,6 +434,11 @@
     <row r="3" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/1.16.xlsx
+++ b/1.16.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,15 +34,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2.数据库表的设计；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.将已经基本写完的项目报告格式改好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.完成需求分析；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.数据库表的设计；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.将已经基本写完的项目报告格式改好。</t>
+    <t>已暂时完成（日后可能需改动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸质已完成，待改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +410,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -428,17 +436,23 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
